--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DEC0E6-1B04-461C-AA16-C88F6D5BA55F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6FCFF-0DEC-467A-B68D-29159B301865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="fit" sheetId="1" r:id="rId1"/>
     <sheet name="options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
   <si>
     <t>File</t>
   </si>
@@ -32,131 +32,303 @@
     <t>Standard</t>
   </si>
   <si>
+    <t>Sphere</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>dx, dy</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>2.1 Surface</t>
+  </si>
+  <si>
+    <t>2. Substrate</t>
+  </si>
+  <si>
+    <t>2.2 Aperture</t>
+  </si>
+  <si>
+    <t>2.3 Useful area</t>
+  </si>
+  <si>
+    <t>3. Reference</t>
+  </si>
+  <si>
+    <t>dy [mm]</t>
+  </si>
+  <si>
+    <t>r [mm]</t>
+  </si>
+  <si>
+    <t>4. Sag data</t>
+  </si>
+  <si>
+    <t>4.1 Path</t>
+  </si>
+  <si>
+    <t>4.2 Data</t>
+  </si>
+  <si>
+    <t>1. Options</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>powell</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>floating</t>
+  </si>
+  <si>
+    <t>binning</t>
+  </si>
+  <si>
+    <t>rms</t>
+  </si>
+  <si>
+    <t>lad</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>Surfaces</t>
+  </si>
+  <si>
+    <t>EllipticalGrating</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>dx [mm]</t>
+  </si>
+  <si>
+    <t>x_width [mm]</t>
+  </si>
+  <si>
+    <t>y_width [mm]</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>r, dx, dy</t>
+  </si>
+  <si>
+    <t>theta1 [°]</t>
+  </si>
+  <si>
+    <t>theta2 [°]</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>k</t>
   </si>
   <si>
-    <t>Sphere</t>
-  </si>
-  <si>
-    <t>Tolerance</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>dx, dy</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>Circular</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>2.1 Surface</t>
-  </si>
-  <si>
-    <t>2. Substrate</t>
-  </si>
-  <si>
-    <t>2.2 Aperture</t>
-  </si>
-  <si>
-    <t>2.3 Useful area</t>
-  </si>
-  <si>
-    <t>3. Reference</t>
-  </si>
-  <si>
-    <t>gx [mm / pixel]</t>
-  </si>
-  <si>
-    <t>gy [mm /pixel]</t>
-  </si>
-  <si>
-    <t>dy [mm]</t>
-  </si>
-  <si>
-    <t>Diameter [mm]</t>
-  </si>
-  <si>
-    <t>r [mm]</t>
-  </si>
-  <si>
-    <t>4. Sag data</t>
-  </si>
-  <si>
-    <t>HRI-P2_000.0d_145006_001.asc</t>
-  </si>
-  <si>
-    <t>4.1 Path</t>
-  </si>
-  <si>
-    <t>4.2 Data</t>
-  </si>
-  <si>
-    <t>C:\\Users\fauchere\Documents\01-Projects\02-Space\Solar Orbiter\EUI\Design\HRI\Optics\Alignment\Interferometry\HRI-P\HRI-P2_20170125_IAS\Mesures\</t>
-  </si>
-  <si>
-    <t>dx [pixels]</t>
-  </si>
-  <si>
-    <t>dy [pixels]</t>
-  </si>
-  <si>
-    <t>1. Options</t>
-  </si>
-  <si>
-    <t>theta [°]</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>powell</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>floating</t>
-  </si>
-  <si>
-    <t>binning</t>
-  </si>
-  <si>
-    <t>rms</t>
-  </si>
-  <si>
-    <t>lad</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>Surfaces</t>
-  </si>
-  <si>
-    <t>EllipticalGrating</t>
-  </si>
-  <si>
-    <t>Shapes</t>
-  </si>
-  <si>
-    <t>Recangular</t>
+    <t>RectangularAperture</t>
+  </si>
+  <si>
+    <t>Aperture</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>UsefulArea</t>
+  </si>
+  <si>
+    <t>PieAperture</t>
+  </si>
+  <si>
+    <t>dz [mm]</t>
+  </si>
+  <si>
+    <t>alpha [°]</t>
+  </si>
+  <si>
+    <t>beta [°]</t>
+  </si>
+  <si>
+    <t>gamma [°]</t>
+  </si>
+  <si>
+    <t>dy  [mm]</t>
+  </si>
+  <si>
+    <r>
+      <t>a [mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>c [mm]</t>
+  </si>
+  <si>
+    <t>Substrates</t>
+  </si>
+  <si>
+    <t>LW octagon</t>
+  </si>
+  <si>
+    <t>SW octagon</t>
+  </si>
+  <si>
+    <t>LW rectangular</t>
+  </si>
+  <si>
+    <t>SW rectangular</t>
+  </si>
+  <si>
+    <t>SW octagon (sphere)</t>
+  </si>
+  <si>
+    <t>LW octagon (sphere)</t>
+  </si>
+  <si>
+    <t>LW rectangular (sphere)</t>
+  </si>
+  <si>
+    <t>SW rectangular (sphere)</t>
+  </si>
+  <si>
+    <r>
+      <t>b [mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>k [mm]</t>
+  </si>
+  <si>
+    <t>2.4 Fiducials</t>
+  </si>
+  <si>
+    <t>x1 [mm]</t>
+  </si>
+  <si>
+    <t>y1 [mm]</t>
+  </si>
+  <si>
+    <t>x2 [mm]</t>
+  </si>
+  <si>
+    <t>y2 [mm]</t>
+  </si>
+  <si>
+    <t>x3 [mm]</t>
+  </si>
+  <si>
+    <t>y3 [mm]</t>
+  </si>
+  <si>
+    <t>x1 [pixels]</t>
+  </si>
+  <si>
+    <t>y1 [pixels]</t>
+  </si>
+  <si>
+    <t>x2 [pixels]</t>
+  </si>
+  <si>
+    <t>y2 [pixels]</t>
+  </si>
+  <si>
+    <t>x3 [pixels]</t>
+  </si>
+  <si>
+    <t>y3 [pixels]</t>
+  </si>
+  <si>
+    <t>C:\Users\fauchere\Documents\01-Projects\02-Space\Solar C\EPSILON\Optics\Metrology\Zygo\Test</t>
+  </si>
+  <si>
+    <t>LW_rectangle_20250425_012.asc</t>
+  </si>
+  <si>
+    <t>LW_rectangle_20250425_003.asc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,10 +464,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFBCBEC4"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -491,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -621,6 +795,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -666,7 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -688,14 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -706,7 +885,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -718,7 +913,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,277 +1288,521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>1E-8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12">
+        <v>516.83299999999997</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-13.975</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-13.225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B14" s="12">
+        <v>61.924999999999997</v>
+      </c>
+      <c r="C14" s="12">
+        <v>86.188000000000002</v>
+      </c>
+      <c r="D14" s="12">
+        <v>11.0375</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1"/>
-    <row r="5" spans="1:5" s="16" customFormat="1">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="15" customFormat="1">
-      <c r="A6" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12">
+        <v>61.924999999999997</v>
+      </c>
+      <c r="C18" s="12">
+        <v>86.188000000000002</v>
+      </c>
+      <c r="D18" s="12">
+        <v>11.0375</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>-17.925000000000001</v>
+      </c>
+      <c r="B22" s="6">
+        <v>41.094000000000001</v>
+      </c>
+      <c r="C22" s="6">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-17.925000000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <v>-41.094000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="B26" s="5">
+        <v>516.83299999999997</v>
+      </c>
+      <c r="C26" s="5">
+        <v>-13.975</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-13.225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1518.1252999999999</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="5">
+    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1"/>
-    <row r="10" spans="1:5" s="17" customFormat="1">
-      <c r="A10" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="18" customFormat="1"/>
-    <row r="14" spans="1:5" s="17" customFormat="1">
-      <c r="A14" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1">
-      <c r="A15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="18" customFormat="1"/>
-    <row r="18" spans="1:7" s="16" customFormat="1">
-      <c r="A18" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1">
-      <c r="A19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
+      <c r="F33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>154.56</v>
+      </c>
+      <c r="B34" s="6">
+        <v>911.77</v>
+      </c>
+      <c r="C34" s="6">
+        <v>621.72</v>
+      </c>
+      <c r="D34" s="6">
+        <v>256.61</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1077.94</v>
+      </c>
+      <c r="F34" s="6">
+        <v>911.91</v>
+      </c>
+      <c r="G34" s="6">
         <v>4</v>
       </c>
-      <c r="B20" s="5">
-        <v>1518</v>
-      </c>
-      <c r="C20" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="18" customFormat="1"/>
-    <row r="22" spans="1:7" s="16" customFormat="1">
-      <c r="A22" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="15" customFormat="1">
-      <c r="A23" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="14" customFormat="1">
-      <c r="A24" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1"/>
-    <row r="26" spans="1:7" s="15" customFormat="1">
-      <c r="A26" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="12" customFormat="1">
-      <c r="A27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="5">
-        <v>7.8981074760807193E-2</v>
-      </c>
-      <c r="B28" s="5">
-        <v>7.89014563508635E-2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>489.13055059282101</v>
-      </c>
-      <c r="D28" s="5">
-        <v>455.16738671430801</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="H34" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <v>292.89</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1043.42</v>
+      </c>
+      <c r="C35" s="5">
+        <v>946.29</v>
+      </c>
+      <c r="D35" s="5">
+        <v>587.9</v>
+      </c>
+      <c r="E35" s="5">
+        <v>295.33</v>
+      </c>
+      <c r="F35" s="5">
+        <v>126.69</v>
+      </c>
+      <c r="G35" s="6">
         <v>4</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="8"/>
-    </row>
-    <row r="149" spans="3:3">
-      <c r="C149" s="9"/>
+      <c r="H35" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C154" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="16">
-    <mergeCell ref="A25:XFD25"/>
+  <mergeCells count="17">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A6:XFD6"/>
-    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A11:XFD11"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A5:XFD5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD697CB8-BC54-434F-A65F-3DDD7DCD54FC}">
           <x14:formula1>
             <xm:f>options!$B$2:$B$3</xm:f>
@@ -1363,17 +1821,23 @@
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{82A51C10-273C-4B5C-8C78-B832B585AC37}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D137071E-566B-430C-80E0-15FB33ED8D26}">
           <x14:formula1>
-            <xm:f>options!$D$2:$D$4</xm:f>
+            <xm:f>options!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A8 A20</xm:sqref>
+          <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4DBB58EC-7B88-457E-9CCE-49F8848151E5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFE01E3D-29DA-4A05-9541-A70BBFEA9FA8}">
           <x14:formula1>
-            <xm:f>options!$E$2:$E$3</xm:f>
+            <xm:f>options!$A$7:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A12 A16</xm:sqref>
+          <xm:sqref>A6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD318A77-2F3A-4723-8D31-30C1CD0C1162}">
+          <x14:formula1>
+            <xm:f>options!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1383,74 +1847,569 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EEFA51-2F97-433D-B753-B3D8C1EFBAFD}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="15">
+        <f>1 / 1008.9554166</f>
+        <v>9.9112407104153498E-4</v>
+      </c>
+      <c r="C19" s="15">
+        <f>1 / 1010.2811818</f>
+        <v>9.8982344520989469E-4</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1933.255026</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2.0386372000000001</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.34649799999999997</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.77334219999999998</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15">
+        <v>527.99199999999996</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7.1459999999999999</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-1.1539999999999999</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="15">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C26" s="15">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D26" s="15">
+        <f>-17.4 / 2 - 0.15 / 2</f>
+        <v>-8.7749999999999986</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="15">
+        <v>61.924999999999997</v>
+      </c>
+      <c r="C29" s="15">
+        <v>86.188000000000002</v>
+      </c>
+      <c r="D29" s="15">
+        <f>-61.925 / 2 - 0.15 / 2 + 20</f>
+        <v>-11.037499999999998</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="15">
+        <f>34.2/2</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C33" s="15">
+        <v>90</v>
+      </c>
+      <c r="D33" s="15">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
+    <row r="36" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="15">
+        <v>516.02739999999994</v>
+      </c>
+      <c r="C38" s="15">
+        <v>-0.52286999999999995</v>
+      </c>
+      <c r="D38" s="15">
+        <v>31.838092199999998</v>
+      </c>
+      <c r="E38" s="15">
+        <v>15.069077999999999</v>
+      </c>
+      <c r="F38" s="15">
+        <v>2.4463360000000001</v>
+      </c>
+      <c r="G38" s="15">
+        <v>3.1515374999999999</v>
+      </c>
+      <c r="H38" s="15">
+        <v>-5.0875301999999998</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="15">
+        <v>516.83100000000002</v>
+      </c>
+      <c r="C41" s="15">
+        <v>-13.975</v>
+      </c>
+      <c r="D41" s="15">
+        <v>-13.225</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="15">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="C45" s="15">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D45" s="15">
+        <f>17.4 / 2 + 0.15 / 2</f>
+        <v>8.7749999999999986</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="15">
+        <v>61.924999999999997</v>
+      </c>
+      <c r="C48" s="15">
+        <v>86.188000000000002</v>
+      </c>
+      <c r="D48" s="15">
+        <f>61.925 / 2 + 0.15 / 2 - 20</f>
+        <v>11.037499999999998</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="15">
+        <f>34.2/2</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C52" s="16">
+        <v>-90</v>
+      </c>
+      <c r="D52" s="15">
+        <v>90</v>
+      </c>
+      <c r="E52" s="17"/>
     </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6FCFF-0DEC-467A-B68D-29159B301865}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B009F-6C5C-41E1-9254-4131A43A28AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -904,16 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -927,12 +917,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1307,8 +1307,8 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
@@ -1348,21 +1348,21 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:6" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+    <row r="4" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="26"/>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1400,9 +1400,9 @@
         <v>-13.225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
+    <row r="11" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1440,9 +1440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+    <row r="15" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1494,33 +1494,33 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
+    <row r="19" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>-17.925000000000001</v>
       </c>
@@ -1541,8 +1541,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1574,25 +1574,25 @@
         <v>-13.225</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
+    <row r="27" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
+    <row r="31" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1780,11 +1780,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A32:XFD32"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A28:XFD28"/>
@@ -1797,6 +1792,11 @@
     <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A32:XFD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1850,7 +1850,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9B009F-6C5C-41E1-9254-4131A43A28AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B62413-6364-4DBA-BC6B-4843798D74EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1338,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>

--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B62413-6364-4DBA-BC6B-4843798D74EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084E6A9-4FA2-4B96-B534-27BDEFB34D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
   <si>
     <t>File</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>LW_rectangle_20250425_003.asc</t>
+  </si>
+  <si>
+    <t>crown index</t>
   </si>
 </sst>
 </file>
@@ -917,6 +920,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -926,13 +936,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1290,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1302,13 +1305,14 @@
     <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.265625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1348,21 +1352,21 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="30" t="s">
+    <row r="4" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1400,9 +1404,9 @@
         <v>-13.225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31" t="s">
+    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1440,9 +1444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31" t="s">
+    <row r="15" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1494,7 +1498,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>69</v>
@@ -1541,8 +1545,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1574,107 +1578,116 @@
         <v>-13.225</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="30" t="s">
+    <row r="27" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="29" t="s">
+    <row r="29" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="29" t="s">
+    <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>5</v>
+      </c>
+      <c r="B34" s="6">
         <v>154.56</v>
       </c>
-      <c r="B34" s="6">
+      <c r="C34" s="6">
         <v>911.77</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>621.72</v>
       </c>
-      <c r="D34" s="6">
+      <c r="E34" s="6">
         <v>256.61</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>1077.94</v>
       </c>
-      <c r="F34" s="6">
+      <c r="G34" s="6">
         <v>911.91</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <v>4</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
         <v>292.89</v>
       </c>
-      <c r="B35" s="5">
+      <c r="C35" s="5">
         <v>1043.42</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>946.29</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>587.9</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>295.33</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>126.69</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <v>4</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1683,8 +1696,9 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1693,8 +1707,9 @@
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1703,8 +1718,9 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1713,8 +1729,9 @@
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1723,8 +1740,9 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1733,8 +1751,9 @@
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1743,8 +1762,9 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1753,8 +1773,9 @@
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1763,8 +1784,9 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1773,6 +1795,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C154" s="7"/>
@@ -1780,6 +1803,10 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A32:XFD32"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A28:XFD28"/>
@@ -1793,16 +1820,12 @@
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A32:XFD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD697CB8-BC54-434F-A65F-3DDD7DCD54FC}">
           <x14:formula1>
             <xm:f>options!$B$2:$B$3</xm:f>

--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B084E6A9-4FA2-4B96-B534-27BDEFB34D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968AABB-083E-4D08-8FC6-FEFCBC07DBBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3413" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="91">
   <si>
     <t>File</t>
   </si>
@@ -158,9 +158,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>RectangularAperture</t>
-  </si>
-  <si>
     <t>Aperture</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
   </si>
   <si>
     <t>UsefulArea</t>
-  </si>
-  <si>
-    <t>PieAperture</t>
   </si>
   <si>
     <t>dz [mm]</t>
@@ -270,9 +264,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>k [mm]</t>
   </si>
   <si>
@@ -325,6 +316,32 @@
   </si>
   <si>
     <t>crown index</t>
+  </si>
+  <si>
+    <t>Useful area over which th fit is performed</t>
+  </si>
+  <si>
+    <t>Measured position of the three fiducials in the EGA reference frame</t>
+  </si>
+  <si>
+    <t>Initial reference wavefront used for the fit.</t>
+  </si>
+  <si>
+    <t>(x1, y1), (x2, y2), (x3, y3) are the coordinates in pixels of the three fiducials. Their order with respect to the definition in 2.4 does not matter.
+Binning defines the rebinnined performed on the data prior to fitting, not how much the data was binned during the acquisition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface fitting options
+</t>
+  </si>
+  <si>
+    <t>Nominal shape of the susbstrate (in Zemax notations)</t>
+  </si>
+  <si>
+    <t>Outer dimensions of the substrate. Must include the useful area but  the exact shape is not critical.</t>
+  </si>
+  <si>
+    <t>radius [mm]</t>
   </si>
 </sst>
 </file>
@@ -668,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -811,6 +828,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -856,7 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -904,9 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,6 +943,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
@@ -927,14 +952,37 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1291,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1311,12 +1359,12 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1332,9 +1380,17 @@
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F2" s="21"/>
+      <c r="J2" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1.0000000000000001E-9</v>
       </c>
@@ -1351,26 +1407,38 @@
         <v>6</v>
       </c>
       <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="27" t="s">
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1378,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>33</v>
@@ -1386,8 +1454,16 @@
       <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
         <v>2</v>
       </c>
@@ -1403,14 +1479,20 @@
       <c r="E10" s="12">
         <v>-13.225</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="28" t="s">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
@@ -1426,8 +1508,16 @@
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J13" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1443,14 +1533,20 @@
       <c r="E14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="28" t="s">
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1469,12 +1565,16 @@
       <c r="F17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J17" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
@@ -1493,38 +1593,48 @@
       <c r="F18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+    </row>
+    <row r="19" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="J21" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+    </row>
+    <row r="22" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>-17.925000000000001</v>
       </c>
@@ -1543,14 +1653,20 @@
       <c r="F22" s="6">
         <v>-41.094000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1563,8 +1679,16 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="J25" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1577,50 +1701,56 @@
       <c r="D26" s="5">
         <v>-13.225</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="26" t="s">
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>26</v>
@@ -1628,8 +1758,16 @@
       <c r="I33" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J33" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>5</v>
       </c>
@@ -1655,10 +1793,16 @@
         <v>4</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -1684,10 +1828,16 @@
         <v>4</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1697,8 +1847,14 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J36" s="32"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1708,8 +1864,14 @@
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J37" s="32"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1719,8 +1881,14 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J38" s="32"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1731,7 +1899,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1742,7 +1910,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1753,7 +1921,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1764,7 +1932,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1775,7 +1943,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1786,7 +1954,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1802,11 +1970,18 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="17">
+  <mergeCells count="25">
+    <mergeCell ref="J33:O38"/>
+    <mergeCell ref="J9:O10"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J17:O18"/>
     <mergeCell ref="A31:XFD31"/>
     <mergeCell ref="A30:XFD30"/>
     <mergeCell ref="A29:XFD29"/>
     <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="J21:O22"/>
+    <mergeCell ref="J25:O26"/>
+    <mergeCell ref="A23:XFD23"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A28:XFD28"/>
@@ -1819,13 +1994,14 @@
     <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="J2:O3"/>
+    <mergeCell ref="A7:XFD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD697CB8-BC54-434F-A65F-3DDD7DCD54FC}">
           <x14:formula1>
             <xm:f>options!$B$2:$B$3</xm:f>
@@ -1872,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EEFA51-2F97-433D-B753-B3D8C1EFBAFD}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1955,47 +2131,47 @@
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -2005,7 +2181,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.45">
@@ -2013,13 +2189,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>33</v>
@@ -2028,16 +2204,16 @@
         <v>15</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="J18" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
@@ -2088,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
@@ -2104,13 +2280,13 @@
       <c r="D22" s="15">
         <v>-1.1539999999999999</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>67</v>
+      <c r="E22" s="15">
+        <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -2132,7 +2308,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B26" s="15">
         <v>17.399999999999999</v>
@@ -2167,7 +2343,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B29" s="15">
         <v>61.924999999999997</v>
@@ -2185,7 +2361,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
@@ -2193,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>38</v>
@@ -2204,11 +2380,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B33" s="15">
-        <f>34.2/2</f>
-        <v>17.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="C33" s="15">
         <v>90</v>
@@ -2224,7 +2399,7 @@
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -2244,16 +2419,16 @@
         <v>15</v>
       </c>
       <c r="F37" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="I37" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -2299,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -2321,7 +2496,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -2338,12 +2513,12 @@
         <v>33</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B45" s="15">
         <v>17.399999999999999</v>
@@ -2373,12 +2548,12 @@
         <v>33</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B48" s="15">
         <v>61.924999999999997</v>
@@ -2396,7 +2571,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -2404,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>38</v>
@@ -2416,11 +2591,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B52" s="15">
-        <f>34.2/2</f>
-        <v>17.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="C52" s="16">
         <v>-90</v>

--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2968AABB-083E-4D08-8FC6-FEFCBC07DBBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76112097-089F-440A-B2C1-FFEF85DB4DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3413" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,13 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -973,6 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -981,6 +975,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,8 +1359,8 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1381,14 +1381,14 @@
         <v>5</v>
       </c>
       <c r="F2" s="21"/>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
@@ -1407,16 +1407,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-    </row>
-    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="27" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1433,8 +1433,8 @@
       <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1454,14 +1454,14 @@
       <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
@@ -1479,16 +1479,16 @@
       <c r="E10" s="12">
         <v>-13.225</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1508,14 +1508,14 @@
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
     </row>
     <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
@@ -1533,16 +1533,16 @@
       <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="38" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1565,14 +1565,14 @@
       <c r="F17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
@@ -1593,14 +1593,14 @@
       <c r="F18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>66</v>
@@ -1625,14 +1625,14 @@
       <c r="F21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
@@ -1653,16 +1653,16 @@
       <c r="F22" s="6">
         <v>-41.094000000000001</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="27" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1679,14 +1679,14 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
@@ -1701,32 +1701,32 @@
       <c r="D26" s="5">
         <v>-13.225</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-    </row>
-    <row r="27" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="27" t="s">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+    </row>
+    <row r="27" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="28" t="s">
+    <row r="31" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="34" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1758,14 +1758,14 @@
       <c r="I33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
@@ -1795,12 +1795,12 @@
       <c r="I34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
@@ -1830,12 +1830,12 @@
       <c r="I35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
@@ -1847,12 +1847,12 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
@@ -1864,12 +1864,12 @@
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
@@ -1881,12 +1881,12 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
@@ -1971,17 +1971,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="J33:O38"/>
-    <mergeCell ref="J9:O10"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J17:O18"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="J21:O22"/>
-    <mergeCell ref="J25:O26"/>
-    <mergeCell ref="A23:XFD23"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A28:XFD28"/>
@@ -1996,6 +1985,17 @@
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="J2:O3"/>
     <mergeCell ref="A7:XFD7"/>
+    <mergeCell ref="J33:O38"/>
+    <mergeCell ref="J9:O10"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J17:O18"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="J21:O22"/>
+    <mergeCell ref="J25:O26"/>
+    <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2048,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EEFA51-2F97-433D-B753-B3D8C1EFBAFD}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2311,14 +2311,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="15">
-        <v>17.399999999999999</v>
+        <v>21.925000000000001</v>
       </c>
       <c r="C26" s="15">
-        <v>34.799999999999997</v>
+        <v>46.188000000000002</v>
       </c>
       <c r="D26" s="15">
-        <f>-17.4 / 2 - 0.15 / 2</f>
-        <v>-8.7749999999999986</v>
+        <v>-10.887499999999999</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -2521,14 +2520,13 @@
         <v>36</v>
       </c>
       <c r="B45" s="15">
-        <v>17.399999999999999</v>
+        <v>21.925000000000001</v>
       </c>
       <c r="C45" s="15">
-        <v>34.799999999999997</v>
+        <v>46.188000000000002</v>
       </c>
       <c r="D45" s="15">
-        <f>17.4 / 2 + 0.15 / 2</f>
-        <v>8.7749999999999986</v>
+        <v>10.887499999999999</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>

--- a/substrates_template.xlsx
+++ b/substrates_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fauchere\Documents\02-Programmes\Python\scripts\solar_c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76112097-089F-440A-B2C1-FFEF85DB4DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F1B169-74B5-4790-98D5-767E26255B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3413" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7680" windowHeight="3413" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fit" sheetId="1" r:id="rId1"/>
@@ -327,10 +327,6 @@
     <t>Initial reference wavefront used for the fit.</t>
   </si>
   <si>
-    <t>(x1, y1), (x2, y2), (x3, y3) are the coordinates in pixels of the three fiducials. Their order with respect to the definition in 2.4 does not matter.
-Binning defines the rebinnined performed on the data prior to fitting, not how much the data was binned during the acquisition.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surface fitting options
 </t>
   </si>
@@ -342,6 +338,11 @@
   </si>
   <si>
     <t>radius [mm]</t>
+  </si>
+  <si>
+    <t>crown index is the crown mirror number, count couterclockwise from 1 in the X direction. Use -1 for any measurement to not use the mirror angles.
+(x1, y1), (x2, y2), (x3, y3) are the coordinates in pixels of the three fiducials. Their order with respect to the definition in 2.4 does not matter.
+Binning defines the rebinnined performed on the data prior to fitting, not how much the data was binned during the acquisition.</t>
   </si>
 </sst>
 </file>
@@ -945,16 +946,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -966,7 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -974,15 +984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1341,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1359,8 +1360,8 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1381,14 +1382,14 @@
         <v>5</v>
       </c>
       <c r="F2" s="21"/>
-      <c r="J2" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="J2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
@@ -1407,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="F3" s="20"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="37" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+    </row>
+    <row r="4" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1432,9 +1433,9 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="34" t="s">
+    <row r="7" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1454,14 +1455,14 @@
       <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+      <c r="J9" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
@@ -1479,16 +1480,16 @@
       <c r="E10" s="12">
         <v>-13.225</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1508,14 +1509,14 @@
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="J13" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="13" t="s">
@@ -1533,16 +1534,16 @@
       <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-    </row>
-    <row r="15" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="38" t="s">
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1565,14 +1566,14 @@
       <c r="F17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="13" t="s">
@@ -1593,14 +1594,14 @@
       <c r="F18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="20" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>66</v>
@@ -1625,14 +1626,14 @@
       <c r="F21" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
     </row>
     <row r="22" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
@@ -1653,16 +1654,16 @@
       <c r="F22" s="6">
         <v>-41.094000000000001</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="37" t="s">
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+    </row>
+    <row r="23" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1679,14 +1680,14 @@
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
@@ -1701,32 +1702,32 @@
       <c r="D26" s="5">
         <v>-13.225</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-    </row>
-    <row r="27" spans="1:15" s="39" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="37" t="s">
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+    </row>
+    <row r="27" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:15" s="34" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="34" t="s">
+    <row r="31" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1758,14 +1759,14 @@
       <c r="I33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
+      <c r="J33" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
@@ -1795,12 +1796,12 @@
       <c r="I34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
@@ -1830,12 +1831,12 @@
       <c r="I35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
@@ -1847,12 +1848,12 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
@@ -1864,12 +1865,12 @@
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
@@ -1881,12 +1882,12 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
@@ -1898,6 +1899,12 @@
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
@@ -1909,6 +1916,12 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
@@ -1920,6 +1933,12 @@
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
@@ -1931,6 +1950,12 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
@@ -1942,6 +1967,12 @@
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
@@ -1953,6 +1984,12 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
@@ -1971,6 +2008,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="J9:O10"/>
+    <mergeCell ref="J13:O14"/>
+    <mergeCell ref="J17:O18"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="J21:O22"/>
+    <mergeCell ref="J25:O26"/>
+    <mergeCell ref="A23:XFD23"/>
+    <mergeCell ref="J33:O44"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A28:XFD28"/>
@@ -1985,17 +2033,6 @@
     <mergeCell ref="A5:XFD5"/>
     <mergeCell ref="J2:O3"/>
     <mergeCell ref="A7:XFD7"/>
-    <mergeCell ref="J33:O38"/>
-    <mergeCell ref="J9:O10"/>
-    <mergeCell ref="J13:O14"/>
-    <mergeCell ref="J17:O18"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="J21:O22"/>
-    <mergeCell ref="J25:O26"/>
-    <mergeCell ref="A23:XFD23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2048,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EEFA51-2F97-433D-B753-B3D8C1EFBAFD}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2291,7 +2328,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>34</v>
@@ -2317,7 +2354,7 @@
         <v>46.188000000000002</v>
       </c>
       <c r="D26" s="15">
-        <v>-10.887499999999999</v>
+        <v>-11.0375</v>
       </c>
       <c r="E26" s="15">
         <v>0</v>
@@ -2325,7 +2362,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>34</v>
@@ -2365,10 +2402,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>38</v>
@@ -2526,7 +2563,7 @@
         <v>46.188000000000002</v>
       </c>
       <c r="D45" s="15">
-        <v>10.887499999999999</v>
+        <v>11.0375</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
@@ -2577,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>38</v>
